--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>384.589279</v>
+        <v>0.014855</v>
       </c>
       <c r="H2">
-        <v>1153.767837</v>
+        <v>0.044565</v>
       </c>
       <c r="I2">
-        <v>0.9999688655894136</v>
+        <v>0.5536850213696453</v>
       </c>
       <c r="J2">
-        <v>0.9999688655894137</v>
+        <v>0.5536850213696451</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>373.8120643333334</v>
+        <v>0.005328</v>
       </c>
       <c r="N2">
-        <v>1121.436193</v>
+        <v>0.015984</v>
       </c>
       <c r="O2">
-        <v>0.9916504392533645</v>
+        <v>0.001689940172269439</v>
       </c>
       <c r="P2">
-        <v>0.9916504392533645</v>
+        <v>0.001689940172269439</v>
       </c>
       <c r="Q2">
-        <v>143764.1123034583</v>
+        <v>7.914744000000001E-05</v>
       </c>
       <c r="R2">
-        <v>1293877.010731125</v>
+        <v>0.0007123269600000001</v>
       </c>
       <c r="S2">
-        <v>0.9916195648014305</v>
+        <v>0.0009356945603964266</v>
       </c>
       <c r="T2">
-        <v>0.9916195648014307</v>
+        <v>0.0009356945603964264</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>384.589279</v>
+        <v>0.014855</v>
       </c>
       <c r="H3">
-        <v>1153.767837</v>
+        <v>0.044565</v>
       </c>
       <c r="I3">
-        <v>0.9999688655894136</v>
+        <v>0.5536850213696453</v>
       </c>
       <c r="J3">
-        <v>0.9999688655894137</v>
+        <v>0.5536850213696451</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +617,22 @@
         <v>9.442339</v>
       </c>
       <c r="O3">
-        <v>0.00834956074663552</v>
+        <v>0.9983100598277306</v>
       </c>
       <c r="P3">
-        <v>0.00834956074663552</v>
+        <v>0.9983100598277306</v>
       </c>
       <c r="Q3">
-        <v>1210.47411602786</v>
+        <v>0.04675531528166667</v>
       </c>
       <c r="R3">
-        <v>10894.26704425074</v>
+        <v>0.4207978375350001</v>
       </c>
       <c r="S3">
-        <v>0.008349300787983018</v>
+        <v>0.5527493268092488</v>
       </c>
       <c r="T3">
-        <v>0.008349300787983018</v>
+        <v>0.5527493268092487</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,46 +655,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01197433333333334</v>
+        <v>0.01197433333333333</v>
       </c>
       <c r="H4">
         <v>0.035923</v>
       </c>
       <c r="I4">
-        <v>3.113441058642416E-05</v>
+        <v>0.4463149786303549</v>
       </c>
       <c r="J4">
-        <v>3.113441058642416E-05</v>
+        <v>0.4463149786303548</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>373.8120643333334</v>
+        <v>0.005328</v>
       </c>
       <c r="N4">
-        <v>1121.436193</v>
+        <v>0.015984</v>
       </c>
       <c r="O4">
-        <v>0.9916504392533645</v>
+        <v>0.001689940172269439</v>
       </c>
       <c r="P4">
-        <v>0.9916504392533645</v>
+        <v>0.001689940172269439</v>
       </c>
       <c r="Q4">
-        <v>4.476150262348779</v>
+        <v>6.379924799999999E-05</v>
       </c>
       <c r="R4">
-        <v>40.285352361139</v>
+        <v>0.000574193232</v>
       </c>
       <c r="S4">
-        <v>3.087445193392212E-05</v>
+        <v>0.000754245611873013</v>
       </c>
       <c r="T4">
-        <v>3.087445193392213E-05</v>
+        <v>0.0007542456118730129</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01197433333333334</v>
+        <v>0.01197433333333333</v>
       </c>
       <c r="H5">
         <v>0.035923</v>
       </c>
       <c r="I5">
-        <v>3.113441058642416E-05</v>
+        <v>0.4463149786303549</v>
       </c>
       <c r="J5">
-        <v>3.113441058642416E-05</v>
+        <v>0.4463149786303548</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,22 +741,22 @@
         <v>9.442339</v>
       </c>
       <c r="O5">
-        <v>0.00834956074663552</v>
+        <v>0.9983100598277306</v>
       </c>
       <c r="P5">
-        <v>0.00834956074663552</v>
+        <v>0.9983100598277306</v>
       </c>
       <c r="Q5">
         <v>0.03768857154411111</v>
       </c>
       <c r="R5">
-        <v>0.3391971438970001</v>
+        <v>0.339197143897</v>
       </c>
       <c r="S5">
-        <v>2.599586525020405E-07</v>
+        <v>0.4455607330184819</v>
       </c>
       <c r="T5">
-        <v>2.599586525020406E-07</v>
+        <v>0.4455607330184818</v>
       </c>
     </row>
   </sheetData>
